--- a/_site/dataset/viz07.xlsx
+++ b/_site/dataset/viz07.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliceziantoni/Google Drive/SINTESI/Deliveries/Phase 02/-PROTOCOLS/PROTOCOL - 7 - MicroBlog/01_Data/reddit top 25/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopoperico/Google Drive/SINTESI/Deliveries/Phase 02/Website/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697A7FDE-5685-2144-8580-E23EA1EC719C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{142FAAC5-2ACB-5549-8875-8B37384469C6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="the red pill" sheetId="3" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="reddit_mgtow" localSheetId="2">MGTOW!$A$4:$H$27</definedName>
     <definedName name="reddit_pussypass" localSheetId="4">'pussy pass'!$A$2:$H$27</definedName>
     <definedName name="reddit_redpillwoman" localSheetId="3">'RedPill women'!$A$1:$H$26</definedName>
-    <definedName name="reddit_theredpill" localSheetId="0">'the red pill'!$A$3:$H$28</definedName>
+    <definedName name="reddit_theredpill" localSheetId="0">'the red pill'!$A$2:$H$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,8 +36,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{A96CBE47-DB34-964C-9EE1-B16B13B26CFD}" name="reddit mensrights" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="reddit mensrights" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/aliceziantoni/Google Drive/SINTESI/Deliveries/Phase 02/-PROTOCOLS/PROTOCOL - 7 - TouchGraph/02_Dataset/reddit top 25/reddit mensrights.csv" decimal="," thousands="." comma="1">
       <textFields count="8">
         <textField/>
@@ -52,7 +51,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{B9844DB4-9D4F-3940-9FAE-95299CDB1EEE}" name="reddit mgtow" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" name="reddit mgtow" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/aliceziantoni/Google Drive/SINTESI/Deliveries/Phase 02/-PROTOCOLS/PROTOCOL - 7 - TouchGraph/02_Dataset/reddit top 25/reddit mgtow.csv" decimal="," thousands="." comma="1">
       <textFields count="8">
         <textField/>
@@ -66,7 +65,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{2AEB86AC-8E72-714F-8E95-1C07FFCE322C}" name="reddit pussypass" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" name="reddit pussypass" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/aliceziantoni/Google Drive/SINTESI/Deliveries/Phase 02/-PROTOCOLS/PROTOCOL - 7 - TouchGraph/02_Dataset/reddit top 25/reddit pussypass.csv" decimal="," thousands="." comma="1" semicolon="1">
       <textFields count="8">
         <textField/>
@@ -80,7 +79,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{A26C3067-0C37-D54B-BF22-AF8FF8662CDA}" name="reddit redpillwoman" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" name="reddit redpillwoman" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/aliceziantoni/Downloads/reddit redpillwoman.csv" decimal="," thousands="." comma="1">
       <textFields count="8">
         <textField/>
@@ -94,7 +93,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{E0225200-36CA-2146-958D-EF85116DD9F8}" name="reddit theredpill" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" name="reddit theredpill" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/aliceziantoni/Google Drive/SINTESI/Deliveries/Phase 02/-PROTOCOLS/PROTOCOL - 7 - TouchGraph/02_Dataset/reddit top 25/reddit theredpill.csv" decimal="," thousands="." comma="1">
       <textFields count="8">
         <textField/>
@@ -112,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="462">
   <si>
     <t>web-scraper-order</t>
   </si>
@@ -1503,7 +1502,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1572,23 +1571,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="reddit theredpill" connectionId="5" xr16:uid="{C76B863E-5560-684E-9456-F3DCD967E64A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="reddit theredpill" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="reddit mensrights_1" connectionId="1" xr16:uid="{717D34B9-606A-FF45-B97F-2EE11AA96DDD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="reddit mensrights_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="reddit mgtow" connectionId="2" xr16:uid="{AA72E103-C762-3D45-AB3F-B8F2240F9DFC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="reddit mgtow" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="reddit redpillwoman" connectionId="4" xr16:uid="{1445A1F3-AD30-7546-A287-D5D9B4D49DB1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="reddit redpillwoman" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="reddit pussypass" connectionId="3" xr16:uid="{7F403106-B0CF-EE47-B31C-CC37F71E2A3B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="reddit pussypass" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1887,8 +1886,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BF0156-F577-1145-BFA1-4DC6AC87980B}">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -1908,68 +1907,65 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
         <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
         <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1980,137 +1976,137 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
         <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F6" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
         <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E7" t="s">
         <v>201</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
         <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
         <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
         <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
         <v>240</v>
@@ -2118,19 +2114,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
         <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
         <v>148</v>
       </c>
       <c r="F10" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -2141,91 +2137,91 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
         <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>240</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
         <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
         <v>156</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="B13" t="s">
         <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
         <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="E14" t="s">
         <v>186</v>
       </c>
       <c r="F14" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G14" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
         <v>240</v>
@@ -2233,91 +2229,91 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="B15" t="s">
         <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="E15" t="s">
         <v>186</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
         <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E16" t="s">
         <v>186</v>
       </c>
       <c r="F16" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
         <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="E17" t="s">
         <v>186</v>
       </c>
       <c r="F17" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="H17" t="s">
-        <v>365</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
         <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="E18" t="s">
         <v>186</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="G18" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
         <v>240</v>
@@ -2325,22 +2321,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
         <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="F19" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H19" t="s">
         <v>240</v>
@@ -2348,134 +2344,134 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s">
         <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
         <v>152</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>240</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
         <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="E21" t="s">
         <v>152</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>365</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
         <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
         <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>240</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s">
         <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="E23" t="s">
         <v>152</v>
       </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="H23" t="s">
-        <v>365</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s">
         <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="E24" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="G24" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
         <v>146</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="E25" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -2486,60 +2482,37 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>368</v>
       </c>
       <c r="B26" t="s">
         <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>366</v>
       </c>
       <c r="E26" t="s">
         <v>172</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>367</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>368</v>
-      </c>
-      <c r="B27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" t="s">
-        <v>366</v>
-      </c>
-      <c r="E27" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" t="s">
-        <v>367</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" t="s">
-        <v>240</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:H28">
-    <sortCondition ref="A2"/>
+  <sortState ref="A1:H27">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3E0FE2-749D-D54F-B48E-26DF01BC71D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
@@ -3168,7 +3141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE11F54-64AB-364D-95AB-58E28D8424B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
@@ -3796,7 +3769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D9B921-A638-8A46-ABAA-DB090FA8562C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
@@ -4499,7 +4472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175D54F7-0AD9-9741-B187-22CEF7FED04B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
@@ -5124,14 +5097,14 @@
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{50ED6141-FF99-F74D-963E-66DB4802346D}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A9EF8C-028A-4B4B-B823-611D8EE971DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K7"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
